--- a/biology/Zoologie/Hominoidea/Hominoidea.xlsx
+++ b/biology/Zoologie/Hominoidea/Hominoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hominoïdes · Grands singes
-Les Hominoidea (Hominoïdes, ou grands singes, ou encore singes sans queue[a],[1]) forment l'une des deux super-familles de singes de l'Ancien Monde ou Catarrhiniens. Les Hominoïdes comprennent les gibbons, les orang-outans, les gorilles, les chimpanzés, les bonobos et les humains. L'autre super-famille est celle des singes à queue de l'Ancien Monde, ou Cercopithecoidea.
+Les Hominoidea (Hominoïdes, ou grands singes, ou encore singes sans queue[a],) forment l'une des deux super-familles de singes de l'Ancien Monde ou Catarrhiniens. Les Hominoïdes comprennent les gibbons, les orang-outans, les gorilles, les chimpanzés, les bonobos et les humains. L'autre super-famille est celle des singes à queue de l'Ancien Monde, ou Cercopithecoidea.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'expression « grands singes » est utilisée pour nommer l'ensemble des singes sans queue qui constituent cette super-famille, comme traduction de l'anglais « apes », qui s'oppose dans cette langue à « monkeys », qui ne désigne que les autres singes de l'Ancien Monde et les singes du Nouveau Monde.
 </t>
@@ -545,17 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Singes
-Phylogénie des familles de singes, d'après Perelman et al. (2011)[2] et Springer et al. (2012)[3] :
-Hominoidea
-Historique
-Aristote faisait déjà la distinction entre singes avec queue (kèbes)  et sans queue (pithèques)[4]. Cette distinction s'est poursuivie au cours des siècles. Et on la retrouve par exemple chez  Buffon, avec le magot puis les autres macaques comme intermédiaire entre les singes sans et avec queue, conformément à la théorie de l'échelle des êtres[5].
-Classification actuelle
-Liste des familles actuelles selon ITIS[7] et Mammal Species of the World[8]:
-Hylobatidae (Gray, 1871) (gibbons), qui vivent en Asie du Sud-Est
-Hominidae (Gray, 1825)
-Phylogénie des genres actuels d'hominidés, d'après Shoshani et al. (1996)[9] et Springer et al. (2012)[10] :
-Sur le plan génétique, les humains possèdent 23 paires de chromosomes, alors que les autres espèces vivantes d'Hominidae possèdent 24 paires de chromosomes. Néanmoins au sein de cette famille, les cinq chromosomes {6, 19, 21, 22, X} sont pratiquement identiques. Les Hylobatidae, quant à eux, possèdent un nombre de chromosomes différent dans chacun de leurs quatre genres.
+          <t>Singes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des familles de singes, d'après Perelman et al. (2011) et Springer et al. (2012) :
 </t>
         </is>
       </c>
@@ -581,13 +591,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Histoire évolutive</t>
+          <t>Classification phylogénétique</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Grande Coupure, il y a 34 millions d'années, qui marque la limite entre l'Éocène et l'Oligocène, se caractérise par un refroidissement rapide qui a un impact négatif important sur la flore et la faune, notamment celle des Primates. Après une longue phase fraiche, le climat global se réchauffe à la fin de l'Oligocène, et les forêts s'étendent à nouveau en Afrique et en Eurasie. Il y a au moins 25 millions d’années apparaissent sur le continent africain au sein des singes catarrhiniens deux groupes distincts, les Cercopithécoïdes (macaques, babouins, colobes) et les Hominoïdes (singes sans queue)[11]. Chez ces derniers, les vertèbres terminales se sont atrophiées et soudées pour former un coccyx[12],[b].
-Vers la fin du Miocène inférieur, partant d'Afrique, certains groupes d'hominoïdes vont coloniser l'Asie et l'Europe, formant notamment les Hylobatidae et les Hominidae, puis ces derniers vont se subdiviser à leur tour en Ponginae (en Asie) et Homininae (en Afrique et en Eurasie).
+          <t>Hominoidea</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aristote faisait déjà la distinction entre singes avec queue (kèbes)  et sans queue (pithèques). Cette distinction s'est poursuivie au cours des siècles. Et on la retrouve par exemple chez  Buffon, avec le magot puis les autres macaques comme intermédiaire entre les singes sans et avec queue, conformément à la théorie de l'échelle des êtres.
 </t>
         </is>
       </c>
@@ -613,12 +632,93 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Classification phylogénétique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hominoidea</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Classification actuelle</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des familles actuelles selon ITIS et Mammal Species of the World:
+Hylobatidae (Gray, 1871) (gibbons), qui vivent en Asie du Sud-Est
+Hominidae (Gray, 1825)
+Phylogénie des genres actuels d'hominidés, d'après Shoshani et al. (1996) et Springer et al. (2012) :
+Sur le plan génétique, les humains possèdent 23 paires de chromosomes, alors que les autres espèces vivantes d'Hominidae possèdent 24 paires de chromosomes. Néanmoins au sein de cette famille, les cinq chromosomes {6, 19, 21, 22, X} sont pratiquement identiques. Les Hylobatidae, quant à eux, possèdent un nombre de chromosomes différent dans chacun de leurs quatre genres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hominoidea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hominoidea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire évolutive</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Grande Coupure, il y a 34 millions d'années, qui marque la limite entre l'Éocène et l'Oligocène, se caractérise par un refroidissement rapide qui a un impact négatif important sur la flore et la faune, notamment celle des Primates. Après une longue phase fraiche, le climat global se réchauffe à la fin de l'Oligocène, et les forêts s'étendent à nouveau en Afrique et en Eurasie. Il y a au moins 25 millions d’années apparaissent sur le continent africain au sein des singes catarrhiniens deux groupes distincts, les Cercopithécoïdes (macaques, babouins, colobes) et les Hominoïdes (singes sans queue). Chez ces derniers, les vertèbres terminales se sont atrophiées et soudées pour former un coccyx,[b].
+Vers la fin du Miocène inférieur, partant d'Afrique, certains groupes d'hominoïdes vont coloniser l'Asie et l'Europe, formant notamment les Hylobatidae et les Hominidae, puis ces derniers vont se subdiviser à leur tour en Ponginae (en Asie) et Homininae (en Afrique et en Eurasie).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hominoidea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hominoidea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Familles fossiles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a existé plusieurs familles d'hominoïdes aujourd'hui éteintes[13] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a existé plusieurs familles d'hominoïdes aujourd'hui éteintes :
 les † Dendropithecidae (Harrison, 2002) : Kenya, Ouganda
 les † Proconsulidae (Leakey, 1963), comprenant deux sous-familles :
 les † Proconsulinae (Leakey, 1963) : Kenya, Ouganda
